--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hp-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hp-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Itgam</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +531,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.09534366666666</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H2">
-        <v>84.28603099999999</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I2">
-        <v>0.479890924521289</v>
+        <v>0.6431807885786103</v>
       </c>
       <c r="J2">
-        <v>0.4807023781989443</v>
+        <v>0.6438169333507339</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.9636299999999999</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N2">
-        <v>2.89089</v>
+        <v>0.38615</v>
       </c>
       <c r="O2">
-        <v>0.004634280881909668</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P2">
-        <v>0.004636691828827674</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q2">
-        <v>27.07351601750999</v>
+        <v>3.616338985627778</v>
       </c>
       <c r="R2">
-        <v>243.66164415759</v>
+        <v>32.54705087065</v>
       </c>
       <c r="S2">
-        <v>0.002223949336910965</v>
+        <v>0.0004329141310888654</v>
       </c>
       <c r="T2">
-        <v>0.002228868789093075</v>
+        <v>0.0004339831813246548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.09534366666666</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H3">
-        <v>84.28603099999999</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I3">
-        <v>0.479890924521289</v>
+        <v>0.6431807885786103</v>
       </c>
       <c r="J3">
-        <v>0.4807023781989443</v>
+        <v>0.6438169333507339</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>71.62512099999999</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N3">
-        <v>214.875363</v>
+        <v>2.89089</v>
       </c>
       <c r="O3">
-        <v>0.3444588990740914</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P3">
-        <v>0.344638101013349</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q3">
-        <v>2012.332389661583</v>
+        <v>27.07351601751001</v>
       </c>
       <c r="R3">
-        <v>18110.99150695425</v>
+        <v>243.66164415759</v>
       </c>
       <c r="S3">
-        <v>0.1653026995362511</v>
+        <v>0.00324098700614655</v>
       </c>
       <c r="T3">
-        <v>0.1656683547750848</v>
+        <v>0.003248990389899343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.09534366666666</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H4">
-        <v>84.28603099999999</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I4">
-        <v>0.479890924521289</v>
+        <v>0.6431807885786103</v>
       </c>
       <c r="J4">
-        <v>0.4807023781989443</v>
+        <v>0.6438169333507339</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.324361</v>
+        <v>102.566826</v>
       </c>
       <c r="N4">
-        <v>0.648722</v>
+        <v>307.700478</v>
       </c>
       <c r="O4">
-        <v>0.001559914055329433</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P4">
-        <v>0.001040483725282092</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q4">
-        <v>9.113033767063666</v>
+        <v>2881.650225269202</v>
       </c>
       <c r="R4">
-        <v>54.678202602382</v>
+        <v>25934.85202742282</v>
       </c>
       <c r="S4">
-        <v>0.000748588598185795</v>
+        <v>0.3449640944425703</v>
       </c>
       <c r="T4">
-        <v>0.0005001630012203986</v>
+        <v>0.3458159584036176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.09534366666666</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H5">
-        <v>84.28603099999999</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I5">
-        <v>0.479890924521289</v>
+        <v>0.6431807885786103</v>
       </c>
       <c r="J5">
-        <v>0.4807023781989443</v>
+        <v>0.6438169333507339</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>135.0220616666667</v>
+        <v>0.8471995</v>
       </c>
       <c r="N5">
-        <v>405.066185</v>
+        <v>1.694399</v>
       </c>
       <c r="O5">
-        <v>0.6493469059886695</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P5">
-        <v>0.6496847234325412</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q5">
-        <v>3793.491225106859</v>
+        <v>23.80236110672817</v>
       </c>
       <c r="R5">
-        <v>34141.42102596173</v>
+        <v>142.814166640369</v>
       </c>
       <c r="S5">
-        <v>0.3116156870499411</v>
+        <v>0.002849395069802573</v>
       </c>
       <c r="T5">
-        <v>0.312304991633546</v>
+        <v>0.001904287630333585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,25 +779,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>7.793901333333333</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H6">
-        <v>23.381704</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I6">
-        <v>0.1331260639078274</v>
+        <v>0.6431807885786103</v>
       </c>
       <c r="J6">
-        <v>0.1333511684651965</v>
+        <v>0.6438169333507339</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9636299999999999</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N6">
-        <v>2.89089</v>
+        <v>260.184174</v>
       </c>
       <c r="O6">
-        <v>0.004634280881909668</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P6">
-        <v>0.004636691828827674</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q6">
-        <v>7.510437141839999</v>
+        <v>2436.654595052599</v>
       </c>
       <c r="R6">
-        <v>67.59393427655999</v>
+        <v>21929.8913554734</v>
       </c>
       <c r="S6">
-        <v>0.0006169435728519292</v>
+        <v>0.291693397929002</v>
       </c>
       <c r="T6">
-        <v>0.000618308273187199</v>
+        <v>0.2924137137455588</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +841,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>7.793901333333333</v>
+        <v>15.16980166666667</v>
       </c>
       <c r="H7">
-        <v>23.381704</v>
+        <v>45.509405</v>
       </c>
       <c r="I7">
-        <v>0.1331260639078274</v>
+        <v>0.347279076358968</v>
       </c>
       <c r="J7">
-        <v>0.1333511684651965</v>
+        <v>0.3476225564081497</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>71.62512099999999</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N7">
-        <v>214.875363</v>
+        <v>0.38615</v>
       </c>
       <c r="O7">
-        <v>0.3444588990740914</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P7">
-        <v>0.344638101013349</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q7">
-        <v>558.2391260620612</v>
+        <v>1.952606304527778</v>
       </c>
       <c r="R7">
-        <v>5024.152134558552</v>
+        <v>17.57345674075</v>
       </c>
       <c r="S7">
-        <v>0.04585645741175736</v>
+        <v>0.0002337476837881507</v>
       </c>
       <c r="T7">
-        <v>0.04595789346775649</v>
+        <v>0.0002343249068412314</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +903,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>7.793901333333333</v>
+        <v>15.16980166666667</v>
       </c>
       <c r="H8">
-        <v>23.381704</v>
+        <v>45.509405</v>
       </c>
       <c r="I8">
-        <v>0.1331260639078274</v>
+        <v>0.347279076358968</v>
       </c>
       <c r="J8">
-        <v>0.1333511684651965</v>
+        <v>0.3476225564081497</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.324361</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N8">
-        <v>0.648722</v>
+        <v>2.89089</v>
       </c>
       <c r="O8">
-        <v>0.001559914055329433</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P8">
-        <v>0.001040483725282092</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q8">
-        <v>2.528037630381333</v>
+        <v>14.61807598005</v>
       </c>
       <c r="R8">
-        <v>15.168225782288</v>
+        <v>131.56268382045</v>
       </c>
       <c r="S8">
-        <v>0.0002076652182205044</v>
+        <v>0.00174993873258145</v>
       </c>
       <c r="T8">
-        <v>0.0001387497205353874</v>
+        <v>0.001754260080119766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,25 +965,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>7.793901333333333</v>
+        <v>15.16980166666667</v>
       </c>
       <c r="H9">
-        <v>23.381704</v>
+        <v>45.509405</v>
       </c>
       <c r="I9">
-        <v>0.1331260639078274</v>
+        <v>0.347279076358968</v>
       </c>
       <c r="J9">
-        <v>0.1333511684651965</v>
+        <v>0.3476225564081497</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,95 +992,95 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>135.0220616666667</v>
+        <v>102.566826</v>
       </c>
       <c r="N9">
-        <v>405.066185</v>
+        <v>307.700478</v>
       </c>
       <c r="O9">
-        <v>0.6493469059886695</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P9">
-        <v>0.6496847234325412</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q9">
-        <v>1052.348626453249</v>
+        <v>1555.91840799951</v>
       </c>
       <c r="R9">
-        <v>9471.137638079241</v>
+        <v>14003.26567199559</v>
       </c>
       <c r="S9">
-        <v>0.08644499770499761</v>
+        <v>0.186259935343796</v>
       </c>
       <c r="T9">
-        <v>0.08663621700371738</v>
+        <v>0.1867198908257216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>15.16980166666667</v>
+      </c>
+      <c r="H10">
+        <v>45.509405</v>
+      </c>
+      <c r="I10">
+        <v>0.347279076358968</v>
+      </c>
+      <c r="J10">
+        <v>0.3476225564081497</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.5</v>
       </c>
-      <c r="G10">
-        <v>0.2964835</v>
-      </c>
-      <c r="H10">
-        <v>0.592967</v>
-      </c>
-      <c r="I10">
-        <v>0.005064175139068095</v>
-      </c>
-      <c r="J10">
-        <v>0.00338182547821588</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>0.9636299999999999</v>
+        <v>0.8471995</v>
       </c>
       <c r="N10">
-        <v>2.89089</v>
+        <v>1.694399</v>
       </c>
       <c r="O10">
-        <v>0.004634280881909668</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P10">
-        <v>0.004636691828827674</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q10">
-        <v>0.2857003951049999</v>
+        <v>12.85184838709917</v>
       </c>
       <c r="R10">
-        <v>1.71420237063</v>
+        <v>77.111090322595</v>
       </c>
       <c r="S10">
-        <v>2.346881002962551E-05</v>
+        <v>0.001538502557281984</v>
       </c>
       <c r="T10">
-        <v>1.568048256136481E-05</v>
+        <v>0.001028201185619256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,25 +1089,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2964835</v>
+        <v>15.16980166666667</v>
       </c>
       <c r="H11">
-        <v>0.592967</v>
+        <v>45.509405</v>
       </c>
       <c r="I11">
-        <v>0.005064175139068095</v>
+        <v>0.347279076358968</v>
       </c>
       <c r="J11">
-        <v>0.00338182547821588</v>
+        <v>0.3476225564081497</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.62512099999999</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N11">
-        <v>214.875363</v>
+        <v>260.184174</v>
       </c>
       <c r="O11">
-        <v>0.3444588990740914</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P11">
-        <v>0.344638101013349</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q11">
-        <v>21.2356665620035</v>
+        <v>1315.647438795163</v>
       </c>
       <c r="R11">
-        <v>127.413999372021</v>
+        <v>11840.82694915647</v>
       </c>
       <c r="S11">
-        <v>0.00174440019312178</v>
+        <v>0.1574969520415205</v>
       </c>
       <c r="T11">
-        <v>0.001165505910770882</v>
+        <v>0.1578858794098479</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1157,46 +1160,46 @@
         <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.2964835</v>
+        <v>0.129484</v>
       </c>
       <c r="H12">
-        <v>0.592967</v>
+        <v>0.258968</v>
       </c>
       <c r="I12">
-        <v>0.005064175139068095</v>
+        <v>0.002964249956021043</v>
       </c>
       <c r="J12">
-        <v>0.00338182547821588</v>
+        <v>0.001978121185893458</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.324361</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N12">
-        <v>0.648722</v>
+        <v>0.38615</v>
       </c>
       <c r="O12">
-        <v>0.001559914055329433</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P12">
-        <v>0.001040483725282092</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q12">
-        <v>0.09616768454350001</v>
+        <v>0.01666674886666667</v>
       </c>
       <c r="R12">
-        <v>0.384670738174</v>
+        <v>0.1000004932</v>
       </c>
       <c r="S12">
-        <v>7.899677978082211E-06</v>
+        <v>1.99518660511766E-06</v>
       </c>
       <c r="T12">
-        <v>3.51873437182795E-06</v>
+        <v>1.33340904973071E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1213,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,16 +1222,16 @@
         <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.2964835</v>
+        <v>0.129484</v>
       </c>
       <c r="H13">
-        <v>0.592967</v>
+        <v>0.258968</v>
       </c>
       <c r="I13">
-        <v>0.005064175139068095</v>
+        <v>0.002964249956021043</v>
       </c>
       <c r="J13">
-        <v>0.00338182547821588</v>
+        <v>0.001978121185893458</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>135.0220616666667</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N13">
-        <v>405.066185</v>
+        <v>2.89089</v>
       </c>
       <c r="O13">
-        <v>0.6493469059886695</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P13">
-        <v>0.6496847234325412</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q13">
-        <v>40.03181342014917</v>
+        <v>0.12477466692</v>
       </c>
       <c r="R13">
-        <v>240.190880520895</v>
+        <v>0.74864800152</v>
       </c>
       <c r="S13">
-        <v>0.003288406457938608</v>
+        <v>1.493685097725908E-05</v>
       </c>
       <c r="T13">
-        <v>0.002197120350511805</v>
+        <v>9.982490969250324E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1272,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>22.35954133333334</v>
+        <v>0.129484</v>
       </c>
       <c r="H14">
-        <v>67.078624</v>
+        <v>0.258968</v>
       </c>
       <c r="I14">
-        <v>0.3819188364318155</v>
+        <v>0.002964249956021043</v>
       </c>
       <c r="J14">
-        <v>0.3825646278576433</v>
+        <v>0.001978121185893458</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9636299999999999</v>
+        <v>102.566826</v>
       </c>
       <c r="N14">
-        <v>2.89089</v>
+        <v>307.700478</v>
       </c>
       <c r="O14">
-        <v>0.004634280881909668</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P14">
-        <v>0.004636691828827674</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q14">
-        <v>21.54632481504</v>
+        <v>13.280762897784</v>
       </c>
       <c r="R14">
-        <v>193.91692333536</v>
+        <v>79.68457738670399</v>
       </c>
       <c r="S14">
-        <v>0.001769919162117148</v>
+        <v>0.001589848173232944</v>
       </c>
       <c r="T14">
-        <v>0.001773834283986035</v>
+        <v>0.001062516125784449</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1334,117 +1337,117 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>22.35954133333334</v>
+        <v>0.129484</v>
       </c>
       <c r="H15">
-        <v>67.078624</v>
+        <v>0.258968</v>
       </c>
       <c r="I15">
-        <v>0.3819188364318155</v>
+        <v>0.002964249956021043</v>
       </c>
       <c r="J15">
-        <v>0.3825646278576433</v>
+        <v>0.001978121185893458</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>71.62512099999999</v>
+        <v>0.8471995</v>
       </c>
       <c r="N15">
-        <v>214.875363</v>
+        <v>1.694399</v>
       </c>
       <c r="O15">
-        <v>0.3444588990740914</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P15">
-        <v>0.344638101013349</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q15">
-        <v>1601.504853504501</v>
+        <v>0.109698780058</v>
       </c>
       <c r="R15">
-        <v>14413.54368154051</v>
+        <v>0.438795120232</v>
       </c>
       <c r="S15">
-        <v>0.1315553419329611</v>
+        <v>1.313210742661437E-05</v>
       </c>
       <c r="T15">
-        <v>0.1318463468597367</v>
+        <v>5.850904986286845E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>22.35954133333334</v>
+        <v>0.129484</v>
       </c>
       <c r="H16">
-        <v>67.078624</v>
+        <v>0.258968</v>
       </c>
       <c r="I16">
-        <v>0.3819188364318155</v>
+        <v>0.002964249956021043</v>
       </c>
       <c r="J16">
-        <v>0.3825646278576433</v>
+        <v>0.001978121185893458</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.324361</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N16">
-        <v>0.648722</v>
+        <v>260.184174</v>
       </c>
       <c r="O16">
-        <v>0.001559914055329433</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P16">
-        <v>0.001040483725282092</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q16">
-        <v>7.252563186421335</v>
+        <v>11.229895862072</v>
       </c>
       <c r="R16">
-        <v>43.515379118528</v>
+        <v>67.37937517243199</v>
       </c>
       <c r="S16">
-        <v>0.0005957605609450519</v>
+        <v>0.001344337637779108</v>
       </c>
       <c r="T16">
-        <v>0.0003980522691544779</v>
+        <v>0.0008984382551037412</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,55 +1461,303 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.287247</v>
+      </c>
+      <c r="H17">
+        <v>0.861741</v>
+      </c>
+      <c r="I17">
+        <v>0.006575885106400611</v>
+      </c>
+      <c r="J17">
+        <v>0.006582389055223097</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.38615</v>
+      </c>
+      <c r="O17">
+        <v>0.0006730831187380127</v>
+      </c>
+      <c r="P17">
+        <v>0.0006740785444489584</v>
+      </c>
+      <c r="Q17">
+        <v>0.03697347635</v>
+      </c>
+      <c r="R17">
+        <v>0.33276128715</v>
+      </c>
+      <c r="S17">
+        <v>4.426117255878971E-06</v>
+      </c>
+      <c r="T17">
+        <v>4.43704723334154E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>22.35954133333334</v>
-      </c>
-      <c r="H17">
-        <v>67.078624</v>
-      </c>
-      <c r="I17">
-        <v>0.3819188364318155</v>
-      </c>
-      <c r="J17">
-        <v>0.3825646278576433</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>135.0220616666667</v>
-      </c>
-      <c r="N17">
-        <v>405.066185</v>
-      </c>
-      <c r="O17">
-        <v>0.6493469059886695</v>
-      </c>
-      <c r="P17">
-        <v>0.6496847234325412</v>
-      </c>
-      <c r="Q17">
-        <v>3019.031368747716</v>
-      </c>
-      <c r="R17">
-        <v>27171.28231872944</v>
-      </c>
-      <c r="S17">
-        <v>0.2479978147757922</v>
-      </c>
-      <c r="T17">
-        <v>0.2485463944447661</v>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.287247</v>
+      </c>
+      <c r="H18">
+        <v>0.861741</v>
+      </c>
+      <c r="I18">
+        <v>0.006575885106400611</v>
+      </c>
+      <c r="J18">
+        <v>0.006582389055223097</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N18">
+        <v>2.89089</v>
+      </c>
+      <c r="O18">
+        <v>0.005038998464660193</v>
+      </c>
+      <c r="P18">
+        <v>0.005046450662597565</v>
+      </c>
+      <c r="Q18">
+        <v>0.27679982661</v>
+      </c>
+      <c r="R18">
+        <v>2.49119843949</v>
+      </c>
+      <c r="S18">
+        <v>3.313587495493451E-05</v>
+      </c>
+      <c r="T18">
+        <v>3.321770160920555E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.287247</v>
+      </c>
+      <c r="H19">
+        <v>0.861741</v>
+      </c>
+      <c r="I19">
+        <v>0.006575885106400611</v>
+      </c>
+      <c r="J19">
+        <v>0.006582389055223097</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>102.566826</v>
+      </c>
+      <c r="N19">
+        <v>307.700478</v>
+      </c>
+      <c r="O19">
+        <v>0.5363407933948394</v>
+      </c>
+      <c r="P19">
+        <v>0.5371339902537582</v>
+      </c>
+      <c r="Q19">
+        <v>29.462013068022</v>
+      </c>
+      <c r="R19">
+        <v>265.158117612198</v>
+      </c>
+      <c r="S19">
+        <v>0.003526915435240212</v>
+      </c>
+      <c r="T19">
+        <v>0.003535624898634647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.287247</v>
+      </c>
+      <c r="H20">
+        <v>0.861741</v>
+      </c>
+      <c r="I20">
+        <v>0.006575885106400611</v>
+      </c>
+      <c r="J20">
+        <v>0.006582389055223097</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.8471995</v>
+      </c>
+      <c r="N20">
+        <v>1.694399</v>
+      </c>
+      <c r="O20">
+        <v>0.004430161970632797</v>
+      </c>
+      <c r="P20">
+        <v>0.002957809171658088</v>
+      </c>
+      <c r="Q20">
+        <v>0.2433555147765</v>
+      </c>
+      <c r="R20">
+        <v>1.460133088659</v>
+      </c>
+      <c r="S20">
+        <v>2.913223612162659E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.946945071896069E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.287247</v>
+      </c>
+      <c r="H21">
+        <v>0.861741</v>
+      </c>
+      <c r="I21">
+        <v>0.006575885106400611</v>
+      </c>
+      <c r="J21">
+        <v>0.006582389055223097</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>86.72805799999999</v>
+      </c>
+      <c r="N21">
+        <v>260.184174</v>
+      </c>
+      <c r="O21">
+        <v>0.4535169630511297</v>
+      </c>
+      <c r="P21">
+        <v>0.4541876713675373</v>
+      </c>
+      <c r="Q21">
+        <v>24.91237447632599</v>
+      </c>
+      <c r="R21">
+        <v>224.211370286934</v>
+      </c>
+      <c r="S21">
+        <v>0.00298227544282796</v>
+      </c>
+      <c r="T21">
+        <v>0.002989639957026942</v>
       </c>
     </row>
   </sheetData>
